--- a/report_agent/income_stmt_cum.xlsx
+++ b/report_agent/income_stmt_cum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2023-3Q</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2023-4Q</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-1Q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024-2Q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>2024-3Q</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2024-2Q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2024-1Q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023-3Q</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -473,151 +473,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>서치플랫폼</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134357500000000</v>
+        <v>2660720000000</v>
       </c>
       <c r="C2" t="n">
-        <v>89363600000000</v>
+        <v>3589060000000</v>
       </c>
       <c r="D2" t="n">
-        <v>47292700000000</v>
+        <v>905354000000</v>
       </c>
       <c r="E2" t="n">
-        <v>169992300000000</v>
+        <v>1883760000000</v>
       </c>
       <c r="F2" t="n">
-        <v>130444100000000</v>
+        <v>2881470000000</v>
       </c>
       <c r="G2" t="n">
-        <v>174752084400000</v>
+        <v>3947966000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>커머스</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80965200000000</v>
+        <v>1886200000000</v>
       </c>
       <c r="C3" t="n">
-        <v>51693800000000</v>
+        <v>2546650000000</v>
       </c>
       <c r="D3" t="n">
-        <v>23137300000000</v>
+        <v>703451000000</v>
       </c>
       <c r="E3" t="n">
-        <v>66594500000000</v>
+        <v>1422500000000</v>
       </c>
       <c r="F3" t="n">
-        <v>44902100000000</v>
+        <v>2147880000000</v>
       </c>
       <c r="G3" t="n">
-        <v>123199825000000</v>
+        <v>2941380750000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SDC</t>
+          <t>핀테크</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21031700000000</v>
+        <v>998749000000</v>
       </c>
       <c r="C4" t="n">
-        <v>13032600000000</v>
+        <v>1354770000000</v>
       </c>
       <c r="D4" t="n">
-        <v>5386400000000</v>
+        <v>353910000000</v>
       </c>
       <c r="E4" t="n">
-        <v>30975400000000</v>
+        <v>722374000000</v>
       </c>
       <c r="F4" t="n">
-        <v>21315800000000</v>
+        <v>1107490000000</v>
       </c>
       <c r="G4" t="n">
-        <v>30990887700000</v>
+        <v>1469925450000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Harman</t>
+          <t>콘텐츠</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10348900000000</v>
+        <v>1266640000000</v>
       </c>
       <c r="C5" t="n">
-        <v>6819300000000</v>
+        <v>1732980000000</v>
       </c>
       <c r="D5" t="n">
-        <v>3200300000000</v>
+        <v>446319000000</v>
       </c>
       <c r="E5" t="n">
-        <v>14388500000000</v>
+        <v>866316000000</v>
       </c>
       <c r="F5" t="n">
-        <v>10464100000000</v>
+        <v>1329070000000</v>
       </c>
       <c r="G5" t="n">
-        <v>14237420750000</v>
+        <v>1828293900000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>영업수익</t>
+          <t>클라우드</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225082634000000</v>
+        <v>321330000000</v>
       </c>
       <c r="C6" t="n">
-        <v>145983903000000</v>
+        <v>447184000000</v>
       </c>
       <c r="D6" t="n">
-        <v>71915601000000</v>
+        <v>117020000000</v>
       </c>
       <c r="E6" t="n">
-        <v>258935494000000</v>
+        <v>241598000000</v>
       </c>
       <c r="F6" t="n">
-        <v>191155556000000</v>
+        <v>386191000000</v>
       </c>
       <c r="G6" t="n">
-        <v>343180217850000</v>
+        <v>547800400000.0001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>영업비용</t>
+          <t>영업수익</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198849376000000</v>
+        <v>7133639509858</v>
       </c>
       <c r="C7" t="n">
-        <v>128934016000000</v>
+        <v>9670643576585</v>
       </c>
       <c r="D7" t="n">
-        <v>65309592000000</v>
+        <v>2526055415876</v>
       </c>
       <c r="E7" t="n">
-        <v>252368518000000</v>
+        <v>5136541336068</v>
       </c>
       <c r="F7" t="n">
-        <v>187413297000000</v>
+        <v>7852098497624</v>
       </c>
       <c r="G7" t="n">
-        <v>303182750984763.1</v>
+        <v>10735366500000</v>
       </c>
     </row>
     <row r="8">
@@ -627,97 +627,47 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26233258000000</v>
+        <v>1083329265515</v>
       </c>
       <c r="C8" t="n">
-        <v>17049887000000</v>
+        <v>1488820269608</v>
       </c>
       <c r="D8" t="n">
-        <v>6606009000000</v>
+        <v>439293106330</v>
       </c>
       <c r="E8" t="n">
-        <v>6566976000000</v>
+        <v>911978251158</v>
       </c>
       <c r="F8" t="n">
-        <v>3742259000000</v>
+        <v>1437247915601</v>
       </c>
       <c r="G8" t="n">
-        <v>39997466865236.94</v>
+        <v>1965001219738.475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>영업이익률</t>
+          <t>순이익</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1165</v>
+        <v>686577345686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1168</v>
+        <v>985017762493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0919</v>
+        <v>555803310517</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0254</v>
+        <v>887859837510</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0196</v>
+        <v>1417937616744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1165494535664621</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>순이익</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>26696957000000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16596053000000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6754708000000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15487100000000</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5844171000000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>40704461985246.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>순이익률</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1137</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0939</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.118609581403779</v>
+        <v>1938600234636.574</v>
       </c>
     </row>
   </sheetData>
